--- a/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
+++ b/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\データベース定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A89C4E-C583-46A8-86F7-C51407EB02A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D683C-76D1-4EA6-9E42-520915DCDAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="710" yWindow="250" windowWidth="15990" windowHeight="9540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -438,6 +438,61 @@
     <rPh sb="6" eb="7">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み会データ</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nomiInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを登録した日を自動取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達データ</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friends</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -527,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +600,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,521 +1326,531 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="16.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="7" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table userInfo (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>30</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="7" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>userID varchar (30),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>60</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>userPW varchar (60),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="7" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>max int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="L13" s="7" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>age int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="7" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>gender varchar (3)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="7" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="L16" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="L19" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="L20" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="L24" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="L26" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="L29" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L30" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1782,537 +1865,555 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="16.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="7" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table nomiInfo (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="7" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>number int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>drink int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="7" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>eat int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="7" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>account int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="7" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>age int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>gender varchar (3)</v>
+        <v>gender varchar (3),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">registDate date </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="L19" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="L20" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="L24" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="L26" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="L29" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L30" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2327,519 +2428,529 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="16.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="7" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table friends (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="7" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>number int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>30</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>name varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="7" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>visitTimes int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="10">
         <v>255</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="7" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>avatar varchar (255)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="7" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="7" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="L16" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="L19" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="L20" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="L24" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="L26" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>18</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>19</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="L29" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L30" s="7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
+++ b/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\データベース定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D683C-76D1-4EA6-9E42-520915DCDAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506AFD93-D6C6-435B-A8C8-7BBD44F698FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="250" windowWidth="15990" windowHeight="9540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20610" yWindow="340" windowWidth="15990" windowHeight="9540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="アカウント情報" sheetId="2" r:id="rId2"/>
     <sheet name="飲み会" sheetId="4" r:id="rId3"/>
     <sheet name="友達" sheetId="6" r:id="rId4"/>
+    <sheet name="ルーレット" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -441,24 +442,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ情報</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>userInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲み会データ</t>
-    <rPh sb="0" eb="1">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -485,14 +469,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>友達データ</t>
+    <t>friends</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roulette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奢り名前登録テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>オゴ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ナマエトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/06.08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達データテーブル</t>
     <rPh sb="0" eb="2">
       <t>トモダチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>friends</t>
+    <t>飲み会データテーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1325,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -1394,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -1865,7 +1888,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -1933,7 +1956,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -2006,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>number int ,</v>
       </c>
     </row>
@@ -2034,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="7" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>drink int ,</v>
       </c>
     </row>
@@ -2062,7 +2085,7 @@
         <v>39</v>
       </c>
       <c r="L12" s="7" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>eat int ,</v>
       </c>
     </row>
@@ -2090,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>account int ,</v>
       </c>
     </row>
@@ -2118,7 +2141,7 @@
         <v>47</v>
       </c>
       <c r="L14" s="7" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>age int ,</v>
       </c>
     </row>
@@ -2148,7 +2171,7 @@
         <v>48</v>
       </c>
       <c r="L15" s="7" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>gender varchar (3),</v>
       </c>
     </row>
@@ -2157,13 +2180,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2171,7 +2194,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2210,7 +2233,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="L18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2228,7 +2251,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="L19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2246,7 +2269,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="L20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2264,7 +2287,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="L21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2282,7 +2305,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="L22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2300,7 +2323,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="L23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2318,7 +2341,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="L24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2336,7 +2359,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="L25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2354,7 +2377,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="L26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2372,7 +2395,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="L27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2390,7 +2413,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="L28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2408,7 +2431,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="L29" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2427,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F8AE0-CB03-4009-9651-2725B97B0AAA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2482,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -2496,7 +2519,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -2958,4 +2981,511 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24AE2AD-C4BF-4504-B48C-F02097AFD873}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="16.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table roulette (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>number int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="7" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">name String </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="L12" s="7" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="L13" s="7" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="7" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="7" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="L16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="L18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="L19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="L20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="L21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="L23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="L24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="L25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>17</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="L26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>18</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="L27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>19</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="L28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
+++ b/外部設計/データベース定義書/04_DB定義書_けいたんシステム(株)_(仮).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\データベース定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506AFD93-D6C6-435B-A8C8-7BBD44F698FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8689645-71B0-4A37-A310-7B826DA34013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20610" yWindow="340" windowWidth="15990" windowHeight="9540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="270" windowWidth="17990" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="74">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -474,10 +474,6 @@
   </si>
   <si>
     <t>roulette</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -985,7 +981,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1348,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -1888,7 +1884,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1942,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -2505,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -2988,7 +2984,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3042,7 +3038,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
@@ -3140,7 +3136,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3152,7 +3148,7 @@
       <c r="J11" s="10"/>
       <c r="L11" s="7" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">name String </v>
+        <v xml:space="preserve">name varchar </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
